--- a/ML2025Spring/最終分數.xlsx
+++ b/ML2025Spring/最終分數.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t xml:space="preserve">Private Score</t>
   </si>
@@ -94,6 +94,33 @@
     <t xml:space="preserve">HW04</t>
   </si>
   <si>
+    <t xml:space="preserve">Strong 
+FID ≤ 73.00
+PDR ≥ 0.85</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">使用大模型，再搭配 data augmentation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">個人依生成的圖感覺應該有 Strong</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">HW05</t>
   </si>
   <si>
@@ -134,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -170,6 +197,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -369,7 +402,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -447,7 +480,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -460,22 +493,28 @@
       <c r="H4" s="2"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="53.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -488,7 +527,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -501,7 +540,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -514,7 +553,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -527,7 +566,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -540,7 +579,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -553,7 +592,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -566,7 +605,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -579,7 +618,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -592,7 +631,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -605,7 +644,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>

--- a/ML2025Spring/最終分數.xlsx
+++ b/ML2025Spring/最終分數.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t xml:space="preserve">Private Score</t>
   </si>
@@ -81,6 +81,12 @@
     <t xml:space="preserve">HW02</t>
   </si>
   <si>
+    <t xml:space="preserve">Medium 0.91979 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strong 0.87103</t>
+  </si>
+  <si>
     <t xml:space="preserve">Strong 0.84773</t>
   </si>
   <si>
@@ -99,29 +105,17 @@
 PDR ≥ 0.85</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">使用大模型，再搭配 data augmentation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">個人依生成的圖感覺應該有 Strong</t>
-    </r>
+    <t xml:space="preserve">使用大模型，再搭配 data augmentation
+個人依生成的圖感覺應該有 Strong</t>
   </si>
   <si>
     <t xml:space="preserve">HW05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_train_epochs &amp; learning_rate 不要太大
+搭配 r &amp; lora_alpha 選大一點
+再加上小小的 lora_dropout 
+重點在於不要 overfitting</t>
   </si>
   <si>
     <t xml:space="preserve">HW06</t>
@@ -161,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -173,16 +167,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
@@ -197,12 +194,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -402,13 +393,13 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.1015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.10546875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="57.63"/>
@@ -440,7 +431,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -461,28 +452,34 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="66.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="2" t="n">
+        <v>0.87392</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="2" t="n">
         <v>0.83748</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -495,26 +492,26 @@
     </row>
     <row r="5" customFormat="false" ht="53.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -522,12 +519,14 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -540,7 +539,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -553,7 +552,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -566,7 +565,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -579,7 +578,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -592,7 +591,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -605,7 +604,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -618,7 +617,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -631,7 +630,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -644,7 +643,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
